--- a/_files/requirements/master_data/master-user_detail_h.xlsx
+++ b/_files/requirements/master_data/master-user_detail_h.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{770BFF7D-1DFD-4A06-AB0A-EFEB475E3DCB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9080E3A6-FF20-4319-9791-33E57232B998}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="159">
   <si>
     <t>id</t>
   </si>
@@ -482,6 +482,21 @@
   </si>
   <si>
     <t>Yadimala@xyz.com</t>
+  </si>
+  <si>
+    <t>Taleev Aalam</t>
+  </si>
+  <si>
+    <t>TaleevAalam@xyz.com</t>
+  </si>
+  <si>
+    <t>Yadimala 2</t>
+  </si>
+  <si>
+    <t>Yadimala2@xyz.com</t>
+  </si>
+  <si>
+    <t>Ramesh</t>
   </si>
 </sst>
 </file>
@@ -812,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3495,10 +3510,10 @@
         <v>9317596808</v>
       </c>
       <c r="C71" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E71">
         <v>818876471</v>
@@ -3533,7 +3548,7 @@
         <v>9317596809</v>
       </c>
       <c r="C72" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>137</v>
@@ -3571,10 +3586,10 @@
         <v>9317596810</v>
       </c>
       <c r="C73" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="E73">
         <v>818876473</v>

--- a/_files/requirements/master_data/master-user_detail_h.xlsx
+++ b/_files/requirements/master_data/master-user_detail_h.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9080E3A6-FF20-4319-9791-33E57232B998}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E243928-FFD9-4983-A495-BB1AB0D6F733}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="160">
   <si>
     <t>id</t>
   </si>
@@ -497,6 +497,9 @@
   </si>
   <si>
     <t>Ramesh</t>
+  </si>
+  <si>
+    <t>Reeba Thomas</t>
   </si>
 </sst>
 </file>
@@ -828,7 +831,7 @@
   <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3624,7 +3627,7 @@
         <v>9317596811</v>
       </c>
       <c r="C74" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>137</v>

--- a/_files/requirements/master_data/master-user_detail_h.xlsx
+++ b/_files/requirements/master_data/master-user_detail_h.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E243928-FFD9-4983-A495-BB1AB0D6F733}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32992E8F-CE8D-4C04-B27B-B0025EF4CAFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="161">
   <si>
     <t>id</t>
   </si>
@@ -500,6 +500,9 @@
   </si>
   <si>
     <t>Reeba Thomas</t>
+  </si>
+  <si>
+    <t>Usha</t>
   </si>
 </sst>
 </file>
@@ -831,7 +834,7 @@
   <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3665,7 +3668,7 @@
         <v>9317596812</v>
       </c>
       <c r="C75" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>137</v>

--- a/_files/requirements/master_data/master-user_detail_h.xlsx
+++ b/_files/requirements/master_data/master-user_detail_h.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32992E8F-CE8D-4C04-B27B-B0025EF4CAFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A32655A0-AEC3-465F-91FE-2E9226AB7E69}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="178">
   <si>
     <t>id</t>
   </si>
@@ -484,25 +484,76 @@
     <t>Yadimala@xyz.com</t>
   </si>
   <si>
-    <t>Taleev Aalam</t>
-  </si>
-  <si>
-    <t>TaleevAalam@xyz.com</t>
-  </si>
-  <si>
-    <t>Yadimala 2</t>
-  </si>
-  <si>
-    <t>Yadimala2@xyz.com</t>
-  </si>
-  <si>
-    <t>Ramesh</t>
-  </si>
-  <si>
-    <t>Reeba Thomas</t>
-  </si>
-  <si>
-    <t>Usha</t>
+    <t>Ankit - Technoforte</t>
+  </si>
+  <si>
+    <t>ankit.vaishnav@technoforte.co.in</t>
+  </si>
+  <si>
+    <t>Jane - Technoforte</t>
+  </si>
+  <si>
+    <t>Piyush - Technoforte</t>
+  </si>
+  <si>
+    <t>Suchana - Technoforte</t>
+  </si>
+  <si>
+    <t>Swapna - Technoforte</t>
+  </si>
+  <si>
+    <t>Niyati - Technoforte</t>
+  </si>
+  <si>
+    <t>Hemant - Technoforte</t>
+  </si>
+  <si>
+    <t>Channa - Technoforte</t>
+  </si>
+  <si>
+    <t>Sanjeev - Technoforte</t>
+  </si>
+  <si>
+    <t>Alok - Technoforte</t>
+  </si>
+  <si>
+    <t>Nikhilesh - Technoforte</t>
+  </si>
+  <si>
+    <t>Chandra - Technoforte</t>
+  </si>
+  <si>
+    <t>Jane.rose@technoforte.co.in</t>
+  </si>
+  <si>
+    <t>piyush.singh@technoforte.co.in</t>
+  </si>
+  <si>
+    <t>suchana.kankonkar@technoforte.co.in</t>
+  </si>
+  <si>
+    <t>swapna.p@technoforte.co.in</t>
+  </si>
+  <si>
+    <t>niyati.swami@technoforte.co.in</t>
+  </si>
+  <si>
+    <t>Hemant.vadher@technoforte.co.in</t>
+  </si>
+  <si>
+    <t>Channakeshava.p@technoforte.co.in</t>
+  </si>
+  <si>
+    <t>sanjeev.shrivastava@technoforte.co.in</t>
+  </si>
+  <si>
+    <t>alok.tiwari@technoforte.co.in</t>
+  </si>
+  <si>
+    <t>nikhilesh.kumar@technoforte.co.in</t>
+  </si>
+  <si>
+    <t>chandra.mishra@technoforte.co.in</t>
   </si>
 </sst>
 </file>
@@ -833,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3516,10 +3567,10 @@
         <v>9317596808</v>
       </c>
       <c r="C71" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="E71">
         <v>818876471</v>
@@ -3554,7 +3605,7 @@
         <v>9317596809</v>
       </c>
       <c r="C72" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>137</v>
@@ -3592,10 +3643,10 @@
         <v>9317596810</v>
       </c>
       <c r="C73" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="E73">
         <v>818876473</v>
@@ -3630,7 +3681,7 @@
         <v>9317596811</v>
       </c>
       <c r="C74" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>137</v>
@@ -3668,7 +3719,7 @@
         <v>9317596812</v>
       </c>
       <c r="C75" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>137</v>
@@ -3706,10 +3757,10 @@
         <v>9317596813</v>
       </c>
       <c r="C76" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E76">
         <v>818876476</v>
@@ -3744,10 +3795,10 @@
         <v>9317596814</v>
       </c>
       <c r="C77" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="E77">
         <v>818876477</v>
@@ -3782,10 +3833,10 @@
         <v>9317596815</v>
       </c>
       <c r="C78" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="E78">
         <v>818876478</v>
@@ -3820,10 +3871,10 @@
         <v>9317596816</v>
       </c>
       <c r="C79" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="E79">
         <v>818876479</v>
@@ -3858,10 +3909,10 @@
         <v>9317596817</v>
       </c>
       <c r="C80" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="E80">
         <v>818876480</v>
@@ -3896,10 +3947,10 @@
         <v>9317596818</v>
       </c>
       <c r="C81" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="E81">
         <v>818876481</v>
@@ -3934,10 +3985,10 @@
         <v>9317596819</v>
       </c>
       <c r="C82" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="E82">
         <v>818876482</v>
@@ -3972,10 +4023,10 @@
         <v>9317596820</v>
       </c>
       <c r="C83" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E83">
         <v>818876483</v>
@@ -4010,10 +4061,10 @@
         <v>9317596821</v>
       </c>
       <c r="C84" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="E84">
         <v>818876484</v>
@@ -4048,10 +4099,10 @@
         <v>9317596822</v>
       </c>
       <c r="C85" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="E85">
         <v>818876485</v>
@@ -4086,10 +4137,10 @@
         <v>9317596823</v>
       </c>
       <c r="C86" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="E86">
         <v>818876486</v>
@@ -4124,10 +4175,10 @@
         <v>9317596824</v>
       </c>
       <c r="C87" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="E87">
         <v>818876487</v>
